--- a/RA/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
+++ b/RA/piano_progetto/Preventivo/Effettivo/PreventivoFinire.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\piano_progetto\Preventivo\Effettivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StefanoPanozzo\Documents\GitHub\Marvin\RA\piano_progetto\Preventivo\Effettivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1560F8-3261-43BF-8501-C2C6CAC3A834}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Ruolo</t>
   </si>
@@ -63,46 +62,46 @@
     <t>Costo Consuntivo(€)</t>
   </si>
   <si>
-    <t>29 (-1)</t>
-  </si>
-  <si>
-    <t>223 (+3)</t>
-  </si>
-  <si>
-    <t>236 (-14)</t>
-  </si>
-  <si>
-    <t>171 (+21)</t>
-  </si>
-  <si>
-    <t>580 (-20)</t>
-  </si>
-  <si>
-    <t>5.192 (-308)</t>
-  </si>
-  <si>
-    <t>2.565 (+315)</t>
-  </si>
-  <si>
-    <t>3.345 (+45)</t>
-  </si>
-  <si>
-    <t>33 (-6)</t>
-  </si>
-  <si>
-    <t>717 (+3)</t>
-  </si>
-  <si>
-    <t>990 (-180)</t>
-  </si>
-  <si>
-    <t>13.297 (-148)</t>
+    <t>34 (-5)</t>
+  </si>
+  <si>
+    <t>232 (-18)</t>
+  </si>
+  <si>
+    <t>185 (+35)</t>
+  </si>
+  <si>
+    <t>205 (-15)</t>
+  </si>
+  <si>
+    <t>1.020 (-150)</t>
+  </si>
+  <si>
+    <t>5.104 (-396)</t>
+  </si>
+  <si>
+    <t>2.775 (+525)</t>
+  </si>
+  <si>
+    <t>3.075 (-225)</t>
+  </si>
+  <si>
+    <t>32 (+2)</t>
+  </si>
+  <si>
+    <t>640 (+40)</t>
+  </si>
+  <si>
+    <t>13.239 (-206)</t>
+  </si>
+  <si>
+    <t>713 (-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +197,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +268,18 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,6 +301,1008 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BA2D-4DAD-918B-3D5E45D880AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333334356E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BA2D-4DAD-918B-3D5E45D880AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333334356E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BA2D-4DAD-918B-3D5E45D880AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111112E-2"/>
+                  <c:y val="3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BA2D-4DAD-918B-3D5E45D880AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1111111111111112E-2"/>
+                  <c:y val="-2.6523613350041651E-18"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BA2D-4DAD-918B-3D5E45D880AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3333333333333381E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BA2D-4DAD-918B-3D5E45D880AD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$15:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Progettista</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Verificatore</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Programmatore</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Responsabile</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amministratore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Analista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$15:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA2D-4DAD-918B-3D5E45D880AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3818E4EF-EC38-4481-96B7-B4C6ADD96BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,16 +1601,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1526DCFC-2621-45BC-859A-8A7F0D00817C}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:E8"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,14 +1639,14 @@
         <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11">
         <f>30*B2</f>
         <v>1170</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +1675,7 @@
         <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11">
         <f>22*B4</f>
@@ -664,14 +1693,14 @@
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16">
         <f>20*B5</f>
         <v>600</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +1711,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11">
         <f>15*B6</f>
@@ -700,7 +1729,7 @@
         <v>220</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="17">
         <f>15*B7</f>
@@ -719,18 +1748,67 @@
         <v>714</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14">
         <f>SUM(D2:D7)</f>
         <v>13445</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="19">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>